--- a/Участок ремонта форм/Формокомплекты/Заявки на отгрузку/Заявка на отгрузку на Агрокомплект/2020/Чистовая и черновая Бульбаш 1 л..xlsx
+++ b/Участок ремонта форм/Формокомплекты/Заявки на отгрузку/Заявка на отгрузку на Агрокомплект/2020/Чистовая и черновая Бульбаш 1 л..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Заявки на отгрузку\Заявка на отгрузку на Агрокомплект\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085F4D5B-3FCE-4652-8D8B-2C9BCA521666}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6336"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -113,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -601,27 +602,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="86" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="86" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41.5546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="46.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>12</v>
       </c>
@@ -630,7 +631,7 @@
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>11</v>
       </c>
@@ -639,9 +640,9 @@
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
     </row>
-    <row r="3" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
@@ -650,15 +651,15 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:5" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -675,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>24</v>
       </c>
@@ -692,7 +693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="22"/>
       <c r="B10" s="25"/>
       <c r="C10" s="20"/>
@@ -701,7 +702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="22"/>
       <c r="B11" s="25"/>
       <c r="C11" s="20"/>
@@ -710,7 +711,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" s="25"/>
       <c r="C12" s="20"/>
@@ -719,14 +720,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="26"/>
       <c r="C13" s="20"/>
       <c r="D13" s="18"/>
       <c r="E13" s="13"/>
     </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -736,7 +737,7 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:5" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="22.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
@@ -746,7 +747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>3</v>
       </c>
@@ -757,12 +758,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
@@ -772,7 +773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>3</v>
       </c>
